--- a/list_tuple_set_dictionary.xlsx
+++ b/list_tuple_set_dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>List</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Ordered and allow duplicate values</t>
   </si>
   <si>
-    <t>unOrdered and doesn't allow duplicate values</t>
-  </si>
-  <si>
     <t>ordered allow duplicate values but not keys</t>
   </si>
   <si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>l=set(())</t>
+  </si>
+  <si>
+    <t>Mutable,(we can add values but we cannot change values)</t>
+  </si>
+  <si>
+    <t>unOrdered and unindexed and doesn't allow duplicate values</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -500,10 +503,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -511,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -528,13 +531,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/list_tuple_set_dictionary.xlsx
+++ b/list_tuple_set_dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>List</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>unOrdered and unindexed and doesn't allow duplicate values</t>
+  </si>
+  <si>
+    <t>d=dict()</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,6 +542,9 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/list_tuple_set_dictionary.xlsx
+++ b/list_tuple_set_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\760167\python_programs_9.26.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_programs_9.26.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF66E09-59C7-4D99-8AFA-9D06D08714F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3990" windowHeight="2540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,22 +413,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.81640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6328125" customWidth="1"/>
-    <col min="4" max="4" width="40.90625" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -444,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,7 +462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -478,7 +479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,7 +496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -512,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -529,7 +530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>

--- a/list_tuple_set_dictionary.xlsx
+++ b/list_tuple_set_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_programs_9.26.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\760167\python_programs_9.26.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF66E09-59C7-4D99-8AFA-9D06D08714F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27515552-E154-462C-907A-7C04F5AC5254}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>List</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>d=dict()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuple is heterogenous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set is heterogenous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictionary is heterogenous </t>
   </si>
 </sst>
 </file>
@@ -416,19 +425,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6328125" customWidth="1"/>
+    <col min="4" max="4" width="55.90625" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -445,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,16 +462,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -479,7 +488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -496,7 +505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -513,7 +522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -530,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -549,5 +558,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>